--- a/medicine/Enfance/Je_bouquine/Je_bouquine.xlsx
+++ b/medicine/Enfance/Je_bouquine/Je_bouquine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je bouquine est un magazine culturel s'adressant aux collégiens, consacré à la littérature des adolescents. Il est né en 1984, au sein du groupe Bayard Presse.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Après le succès de J'aime lire, Bayard a créé Je bouquine pour les collégiens. Depuis le groupe a également créé le magazine J'aime Lire Max pour un lectorat situé entre J'aime lire et Je bouquine (9-13 ans).
 Je bouquine propose chaque mois : 
@@ -557,7 +571,9 @@
           <t>Succès éditoriaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Pennac y a écrit ses Kamo. Patrick Modiano et Sempé y ont publié Catherine Certitude, et Patrick Süskind L'Histoire de monsieur Sommer. 
 Anna Gavalda, Marie-Aude Murail, Malika Ferdjoukh ou Marie Desplechin sont des collaboratrices régulières. 
